--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/bpoefubvt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C75B65C-EC4D-428B-B57C-9827E785CE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032D54B-C7CE-CA4F-9335-0DAB5839C22D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="85" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="85" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1556,10 +1556,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1577,6 +1577,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1924,23 +1925,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="16">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1948,207 +1952,207 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -2173,12 +2177,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3365,12 +3369,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3857,7 +3861,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4086,7 +4090,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -4595,12 +4599,12 @@
       <selection activeCell="AG11" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4827,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5028,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5221,7 +5225,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5727,12 +5731,12 @@
       <selection activeCell="AG11" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5959,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6156,7 +6160,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6353,7 +6357,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -6857,7 +6861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6874,12 +6878,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7182,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -7788,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -7889,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -8006,12 +8010,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -8617,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -9021,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -9138,12 +9142,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -9272,7 +9276,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9601,7 +9605,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9832,7 +9836,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -10341,12 +10345,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10671,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10996,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -11533,12 +11537,12 @@
       <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -12027,7 +12031,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -12258,7 +12262,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -12356,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -12552,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -12767,14 +12771,14 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -12872,27 +12876,27 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -13109,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -13219,7 +13223,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -13769,7 +13773,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -13879,7 +13883,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -13989,7 +13993,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -14099,7 +14103,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -14209,7 +14213,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -14319,7 +14323,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -14539,7 +14543,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -14649,7 +14653,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -14979,7 +14983,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -15199,7 +15203,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -15419,7 +15423,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -15529,7 +15533,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -15639,7 +15643,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -15749,7 +15753,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -15859,7 +15863,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -16079,7 +16083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -16299,7 +16303,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -16409,7 +16413,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -16519,7 +16523,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -16739,7 +16743,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -16849,7 +16853,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -16959,7 +16963,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -17069,7 +17073,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -17179,7 +17183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -17289,7 +17293,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -17399,7 +17403,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -17509,7 +17513,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -17619,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -17949,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -18169,7 +18173,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -18279,7 +18283,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -18389,7 +18393,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -18499,7 +18503,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -18609,7 +18613,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -18719,7 +18723,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -18829,7 +18833,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -18939,7 +18943,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -19049,7 +19053,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -19269,7 +19273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -19379,7 +19383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -19489,7 +19493,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>105</v>
       </c>
@@ -19599,7 +19603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -19709,7 +19713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -19819,7 +19823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -19929,7 +19933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -20039,7 +20043,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -20149,7 +20153,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -20259,7 +20263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -20369,7 +20373,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -20479,7 +20483,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -20589,7 +20593,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -20699,7 +20703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -20809,7 +20813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -20919,7 +20923,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -21029,7 +21033,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -21139,7 +21143,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>195</v>
       </c>
@@ -21249,7 +21253,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -21469,7 +21473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -21579,7 +21583,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -21689,7 +21693,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -21799,7 +21803,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -21909,7 +21913,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -22019,7 +22023,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>137</v>
       </c>
@@ -22129,7 +22133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -22239,7 +22243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -22349,7 +22353,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>209</v>
       </c>
@@ -22459,7 +22463,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -22569,7 +22573,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -22679,7 +22683,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -22789,7 +22793,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -22916,12 +22920,12 @@
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -23050,7 +23054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -23148,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -23246,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -23345,7 +23349,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23443,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -23542,7 +23546,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -23640,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -23738,7 +23742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -23836,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -23934,7 +23938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -24048,12 +24052,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -24182,7 +24186,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -24280,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -24378,7 +24382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -24477,7 +24481,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -24575,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -24674,7 +24678,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -24772,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -24870,7 +24874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -24968,7 +24972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -25066,7 +25070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -25178,7 +25182,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25195,12 +25199,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -25301,7 +25305,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -25402,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -25503,7 +25507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -25604,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -25705,7 +25709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -25806,7 +25810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -25907,7 +25911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -26008,7 +26012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -26109,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -26210,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -26327,12 +26331,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -26433,7 +26437,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -26534,7 +26538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -26635,7 +26639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -26736,7 +26740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -26837,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -26938,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -27039,7 +27043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -27140,7 +27144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -27241,7 +27245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -27342,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -27459,12 +27463,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -27565,7 +27569,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -27666,7 +27670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -27767,7 +27771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -27868,7 +27872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -27969,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -28070,7 +28074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -28171,7 +28175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -28272,7 +28276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -28373,7 +28377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -28474,7 +28478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -28591,12 +28595,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -28725,7 +28729,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -28823,7 +28827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -28921,7 +28925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -29019,7 +29023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -29148,7 +29152,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -29246,7 +29250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -29375,7 +29379,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -29473,7 +29477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -29571,7 +29575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -29669,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -29783,12 +29787,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -29917,7 +29921,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30046,7 +30050,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30144,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -30246,7 +30250,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -30375,7 +30379,7 @@
         <v>0.43051122196943337</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -30473,7 +30477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -30602,7 +30606,7 @@
         <v>1.9488778030566579E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -30700,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -30798,7 +30802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -30896,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -31010,12 +31014,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -31144,7 +31148,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -31242,7 +31246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -31340,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31439,7 +31443,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -31537,7 +31541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -31636,7 +31640,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -31734,7 +31738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -31832,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -31930,7 +31934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -32028,7 +32032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -32142,12 +32146,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -32276,7 +32280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -32374,7 +32378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -32472,7 +32476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -32571,7 +32575,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -32669,7 +32673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -32768,7 +32772,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -32866,7 +32870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -32964,7 +32968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -33062,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -33160,7 +33164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -33274,12 +33278,12 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -33377,27 +33381,27 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -33504,7 +33508,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>312</v>
       </c>
@@ -33512,7 +33516,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>313</v>
       </c>
@@ -33622,7 +33626,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>315</v>
       </c>
@@ -33732,7 +33736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -33842,7 +33846,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>319</v>
       </c>
@@ -33952,7 +33956,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -34062,7 +34066,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>323</v>
       </c>
@@ -34172,7 +34176,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>325</v>
       </c>
@@ -34282,7 +34286,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -34392,7 +34396,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -34502,7 +34506,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -34612,7 +34616,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>333</v>
       </c>
@@ -34722,7 +34726,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>335</v>
       </c>
@@ -34832,7 +34836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>337</v>
       </c>
@@ -34942,7 +34946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -35052,7 +35056,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>341</v>
       </c>
@@ -35162,7 +35166,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -35272,7 +35276,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>344</v>
       </c>
@@ -35382,7 +35386,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -35492,7 +35496,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -35602,7 +35606,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>349</v>
       </c>
@@ -35712,7 +35716,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>351</v>
       </c>
@@ -35822,7 +35826,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>353</v>
       </c>
@@ -35932,7 +35936,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -36042,7 +36046,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>357</v>
       </c>
@@ -36152,7 +36156,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>359</v>
       </c>
@@ -36262,7 +36266,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -36270,7 +36274,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>361</v>
       </c>
@@ -36380,7 +36384,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -36490,7 +36494,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>365</v>
       </c>
@@ -36600,7 +36604,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>367</v>
       </c>
@@ -36710,7 +36714,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -36718,7 +36722,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -36726,7 +36730,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -36836,7 +36840,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>373</v>
       </c>
@@ -36946,7 +36950,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>375</v>
       </c>
@@ -37056,7 +37060,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -37166,7 +37170,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>357</v>
       </c>
@@ -37276,7 +37280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>379</v>
       </c>
@@ -37386,7 +37390,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -37496,7 +37500,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>355</v>
       </c>
@@ -37606,7 +37610,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>357</v>
       </c>
@@ -37731,7 +37735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37748,12 +37752,12 @@
       <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -37854,7 +37858,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -37955,7 +37959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -38056,7 +38060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -38157,7 +38161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -38258,7 +38262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -38359,7 +38363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -38460,7 +38464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -38561,7 +38565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -38662,7 +38666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -38763,7 +38767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -38880,12 +38884,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -38986,7 +38990,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -39087,7 +39091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -39188,7 +39192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -39289,7 +39293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -39390,7 +39394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -39491,7 +39495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -39592,7 +39596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -39693,7 +39697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -39794,7 +39798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -39895,7 +39899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -40012,12 +40016,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -40146,7 +40150,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -40244,7 +40248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -40342,7 +40346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -40475,7 +40479,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -40573,7 +40577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -40706,7 +40710,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -40804,7 +40808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -40902,7 +40906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -41000,7 +41004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -41098,7 +41102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -41212,12 +41216,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -41346,7 +41350,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -41444,7 +41448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -41542,7 +41546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -41640,7 +41644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -41769,7 +41773,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -41867,7 +41871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -41996,7 +42000,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -42094,7 +42098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -42192,7 +42196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -42290,7 +42294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -42404,12 +42408,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -42538,7 +42542,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -42667,7 +42671,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -42765,7 +42769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -42867,7 +42871,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -42996,7 +43000,7 @@
         <v>0.43051122196943337</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -43094,7 +43098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -43223,7 +43227,7 @@
         <v>1.9488778030566579E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -43321,7 +43325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -43419,7 +43423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -43517,7 +43521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -43631,12 +43635,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -43765,7 +43769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -43863,7 +43867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -43961,7 +43965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -44060,7 +44064,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -44158,7 +44162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -44257,7 +44261,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -44355,7 +44359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -44453,7 +44457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -44551,7 +44555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -44649,7 +44653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -44763,12 +44767,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -44897,7 +44901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -44995,7 +44999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -45093,7 +45097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -45192,7 +45196,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -45290,7 +45294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -45389,7 +45393,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -45487,7 +45491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -45585,7 +45589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -45683,7 +45687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -45781,7 +45785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -45893,7 +45897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45910,12 +45914,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -46016,7 +46020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -46117,7 +46121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -46218,7 +46222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -46319,7 +46323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -46420,7 +46424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -46521,7 +46525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -46622,7 +46626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -46723,7 +46727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -46824,7 +46828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -46925,7 +46929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -47039,35 +47043,35 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -47205,7 +47209,7 @@
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -47343,7 +47347,7 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -47481,7 +47485,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -47619,7 +47623,7 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -47757,7 +47761,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -47895,7 +47899,7 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -48033,7 +48037,7 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -48171,7 +48175,7 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -48309,7 +48313,7 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -48447,13 +48451,13 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -48461,7 +48465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -48469,7 +48473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -48477,7 +48481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -48485,7 +48489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -48493,7 +48497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -48501,7 +48505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -48509,7 +48513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -48517,7 +48521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -48557,13 +48561,13 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29">
         <f>D6</f>
         <v>2020</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:AI29" si="0">E6</f>
+        <f t="shared" ref="C29:AF29" si="0">E6</f>
         <v>2021</v>
       </c>
       <c r="D29">
@@ -48683,7 +48687,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -48692,7 +48696,7 @@
         <v>4.306397312900468E-2</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:AI30" si="1">E7/(SUMIFS(E8:E15,$B18:$B25,TRUE)+E7)</f>
+        <f t="shared" ref="C30:AF30" si="1">E7/(SUMIFS(E8:E15,$B18:$B25,TRUE)+E7)</f>
         <v>4.9197433477690018E-2</v>
       </c>
       <c r="D30" s="2">
@@ -48832,12 +48836,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -48938,7 +48942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -49039,7 +49043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -49140,7 +49144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -49241,7 +49245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -49342,7 +49346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -49443,7 +49447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -49544,7 +49548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -49645,7 +49649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -49746,7 +49750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -49847,7 +49851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -49964,12 +49968,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -50070,7 +50074,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -50171,7 +50175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -50272,7 +50276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -50373,7 +50377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -50474,7 +50478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -50575,7 +50579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -50676,7 +50680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -50777,7 +50781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -50878,7 +50882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -50979,7 +50983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -51096,12 +51100,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -51202,7 +51206,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -51303,7 +51307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -51404,7 +51408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -51505,7 +51509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -51606,7 +51610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -51707,7 +51711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -51808,7 +51812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -51909,7 +51913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -52010,7 +52014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -52111,7 +52115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -52228,12 +52232,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -52334,7 +52338,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -52435,7 +52439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -52536,7 +52540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -52637,7 +52641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -52738,7 +52742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -52839,7 +52843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -52940,7 +52944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -53041,7 +53045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -53142,7 +53146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -53243,7 +53247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -53358,7 +53362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53375,12 +53379,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -53481,7 +53485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -53582,7 +53586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -53683,7 +53687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -53784,7 +53788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -53885,7 +53889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -53986,7 +53990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -54087,7 +54091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -54188,7 +54192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -54289,7 +54293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -54390,7 +54394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -54507,12 +54511,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -54613,7 +54617,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -54714,7 +54718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -54815,7 +54819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -54916,7 +54920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -55017,7 +55021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -55118,7 +55122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -55219,7 +55223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -55320,7 +55324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -55421,7 +55425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -55522,7 +55526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -55639,12 +55643,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -55745,7 +55749,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -55846,7 +55850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -55947,7 +55951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -56048,7 +56052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -56149,7 +56153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -56250,7 +56254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -56351,7 +56355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -56452,7 +56456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -56553,7 +56557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -56654,7 +56658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -56771,12 +56775,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -56877,7 +56881,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -56978,7 +56982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -57079,7 +57083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -57180,7 +57184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -57281,7 +57285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -57382,7 +57386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -57483,7 +57487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -57584,7 +57588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -57685,7 +57689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -57786,7 +57790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -57903,12 +57907,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -58009,7 +58013,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -58110,7 +58114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -58211,7 +58215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -58312,7 +58316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -58413,7 +58417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -58514,7 +58518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -58615,7 +58619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -58716,7 +58720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -58817,7 +58821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -58918,7 +58922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -59030,44 +59034,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
@@ -59086,7 +59090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59103,12 +59107,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -59209,7 +59213,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -59310,7 +59314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -59411,7 +59415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -59512,7 +59516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -59613,7 +59617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -59714,7 +59718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -59815,7 +59819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -59916,7 +59920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -60017,7 +60021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -60118,7 +60122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -60235,12 +60239,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -60341,7 +60345,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -60442,7 +60446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -60543,7 +60547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -60644,7 +60648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -60745,7 +60749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -60846,7 +60850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -60947,7 +60951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -61048,7 +61052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -61149,7 +61153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -61250,7 +61254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -61367,12 +61371,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -61473,7 +61477,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -61574,7 +61578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -61675,7 +61679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -61776,7 +61780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -61877,7 +61881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -61978,7 +61982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -62079,7 +62083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -62180,7 +62184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -62281,7 +62285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -62382,7 +62386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -62499,12 +62503,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -62605,7 +62609,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -62706,7 +62710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -62807,7 +62811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -62908,7 +62912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -63009,7 +63013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -63110,7 +63114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -63211,7 +63215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -63312,7 +63316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -63413,7 +63417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -63514,7 +63518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -63631,12 +63635,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -63737,7 +63741,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -63838,7 +63842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -63939,7 +63943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -64040,7 +64044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -64141,7 +64145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -64242,7 +64246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -64343,7 +64347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -64444,7 +64448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -64545,7 +64549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -64646,7 +64650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -64761,7 +64765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64778,12 +64782,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -64884,7 +64888,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -64985,7 +64989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -65086,7 +65090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -65187,7 +65191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -65288,7 +65292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -65389,7 +65393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -65490,7 +65494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -65591,7 +65595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -65692,7 +65696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -65793,7 +65797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -65910,12 +65914,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -66016,7 +66020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -66117,7 +66121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -66218,7 +66222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -66319,7 +66323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -66420,7 +66424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -66521,7 +66525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -66622,7 +66626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -66723,7 +66727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -66824,7 +66828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -66925,7 +66929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -67042,12 +67046,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -67148,7 +67152,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -67249,7 +67253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -67350,7 +67354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -67451,7 +67455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -67552,7 +67556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -67653,7 +67657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -67754,7 +67758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -67855,7 +67859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -67956,7 +67960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -68057,7 +68061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -68174,7 +68178,7 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -68191,12 +68195,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -68297,7 +68301,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -68398,7 +68402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -68499,7 +68503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -68600,7 +68604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -68701,7 +68705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -68802,7 +68806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -68903,7 +68907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -69004,7 +69008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -69105,7 +69109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -69206,7 +69210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -69323,12 +69327,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -69429,7 +69433,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -69530,7 +69534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -69631,7 +69635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -69732,7 +69736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -69833,7 +69837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -69934,7 +69938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -70035,7 +70039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -70136,7 +70140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -70237,7 +70241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -70338,7 +70342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -70453,7 +70457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70470,12 +70474,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -70576,7 +70580,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -70677,7 +70681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -70778,7 +70782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -70879,7 +70883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -70980,7 +70984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -71081,7 +71085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -71182,7 +71186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -71283,7 +71287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -71384,7 +71388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -71485,7 +71489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -71602,12 +71606,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -71708,7 +71712,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -71809,7 +71813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -71910,7 +71914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -72011,7 +72015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -72112,7 +72116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -72213,7 +72217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -72314,7 +72318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -72415,7 +72419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -72516,7 +72520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -72617,7 +72621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -72734,12 +72738,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -72840,7 +72844,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -72941,7 +72945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -73042,7 +73046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -73143,7 +73147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -73244,7 +73248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -73345,7 +73349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -73446,7 +73450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -73547,7 +73551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -73648,7 +73652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -73749,7 +73753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -73866,12 +73870,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -73972,7 +73976,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -74073,7 +74077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -74174,7 +74178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -74275,7 +74279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -74376,7 +74380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -74477,7 +74481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -74578,7 +74582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -74679,7 +74683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -74780,7 +74784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -74881,7 +74885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -74998,12 +75002,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -75104,7 +75108,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -75205,7 +75209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -75306,7 +75310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -75407,7 +75411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -75508,7 +75512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -75609,7 +75613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -75710,7 +75714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -75811,7 +75815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -75912,7 +75916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -76013,7 +76017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -76128,7 +76132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76145,12 +76149,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -76251,7 +76255,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -76352,7 +76356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -76453,7 +76457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -76554,7 +76558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -76655,7 +76659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -76756,7 +76760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -76857,7 +76861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -76958,7 +76962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -77059,7 +77063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -77160,7 +77164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -77275,12 +77279,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -77378,7 +77382,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -77476,7 +77480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -77574,7 +77578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -77672,7 +77676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -77770,7 +77774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -77868,7 +77872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -77966,7 +77970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -78064,7 +78068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -78162,7 +78166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -78260,7 +78264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -78375,12 +78379,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -78481,7 +78485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -78582,7 +78586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -78683,7 +78687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -78784,7 +78788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -78885,7 +78889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -78986,7 +78990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -79087,7 +79091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -79188,7 +79192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -79289,7 +79293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -79390,7 +79394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -79507,12 +79511,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -79613,7 +79617,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -79714,7 +79718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -79815,7 +79819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -79916,7 +79920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -80017,7 +80021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -80118,7 +80122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -80219,7 +80223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -80320,7 +80324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -80421,7 +80425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -80522,7 +80526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -80639,14 +80643,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="10" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="10" customWidth="1"/>
+    <col min="33" max="33" width="9.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -80744,7 +80748,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -80842,7 +80846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -80940,7 +80944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -81038,7 +81042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -81167,7 +81171,7 @@
         <v>0.42807482762198235</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -81265,7 +81269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -81363,7 +81367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -81461,7 +81465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -81590,7 +81594,7 @@
         <v>0.57192517237801754</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -81688,7 +81692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -81802,12 +81806,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -81908,7 +81912,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -82009,7 +82013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -82110,7 +82114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -82211,7 +82215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -82312,7 +82316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -82413,7 +82417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -82514,7 +82518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -82615,7 +82619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -82716,7 +82720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -82817,7 +82821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -82932,7 +82936,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -82949,12 +82953,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -83055,7 +83059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -83156,7 +83160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -83257,7 +83261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -83358,7 +83362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -83459,7 +83463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -83560,7 +83564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -83661,7 +83665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -83762,7 +83766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -83863,7 +83867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -83964,7 +83968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -84081,12 +84085,12 @@
       <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -84187,7 +84191,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -84288,7 +84292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -84389,7 +84393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -84490,7 +84494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -84591,7 +84595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -84692,7 +84696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -84793,7 +84797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -84894,7 +84898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -84995,7 +84999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -85096,7 +85100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -85211,12 +85215,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -85345,7 +85349,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -85443,7 +85447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -85541,7 +85545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -85674,7 +85678,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -85772,7 +85776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -85905,7 +85909,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -86003,7 +86007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -86101,7 +86105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -86199,7 +86203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -86297,7 +86301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -86409,12 +86413,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -86543,7 +86547,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -86641,7 +86645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -86739,7 +86743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -86837,7 +86841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -86966,7 +86970,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -87064,7 +87068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -87193,7 +87197,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -87291,7 +87295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -87389,7 +87393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -87487,7 +87491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -87599,12 +87603,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -87733,7 +87737,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -87862,7 +87866,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -87960,7 +87964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -88093,7 +88097,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -88191,7 +88195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -88324,7 +88328,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -88422,7 +88426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -88520,7 +88524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -88618,7 +88622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -88716,7 +88720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -88830,12 +88834,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -88933,7 +88937,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -89031,7 +89035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -89129,7 +89133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -89227,7 +89231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -89325,7 +89329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -89423,7 +89427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -89521,7 +89525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -89619,7 +89623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -89717,7 +89721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -89815,7 +89819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -89927,12 +89931,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -90061,7 +90065,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -90159,7 +90163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -90257,7 +90261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -90356,7 +90360,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -90454,7 +90458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -90553,7 +90557,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -90651,7 +90655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -90749,7 +90753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -90847,7 +90851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -90945,7 +90949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -91057,12 +91061,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -91191,7 +91195,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -91289,7 +91293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -91387,7 +91391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -91486,7 +91490,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -91584,7 +91588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -91683,7 +91687,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -91781,7 +91785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -91879,7 +91883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -91977,7 +91981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -92075,7 +92079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -92187,7 +92191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -92202,12 +92206,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -92308,7 +92312,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -92409,7 +92413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -92510,7 +92514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -92611,7 +92615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -92712,7 +92716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -92813,7 +92817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -92914,7 +92918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -93015,7 +93019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -93116,7 +93120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -93217,7 +93221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -93334,12 +93338,12 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -93440,7 +93444,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -93541,7 +93545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -93642,7 +93646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -93743,7 +93747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -93844,7 +93848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -93945,7 +93949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -94046,7 +94050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -94147,7 +94151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -94248,7 +94252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -94349,7 +94353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -94464,12 +94468,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -94598,7 +94602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -94727,7 +94731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -94856,7 +94860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -94985,7 +94989,7 @@
         <v>0.99758311736043903</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -95114,7 +95118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -95243,7 +95247,7 @@
         <v>2.4168826395610274E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -95372,7 +95376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -95501,7 +95505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -95599,7 +95603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -95697,7 +95701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -95811,12 +95815,12 @@
       <selection activeCell="AG1" sqref="AG1:AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -95945,7 +95949,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -96074,7 +96078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -96203,7 +96207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -96332,7 +96336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -96461,7 +96465,7 @@
         <v>0.95669160437651868</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -96590,7 +96594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -96719,7 +96723,7 @@
         <v>4.3308395623481294E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -96848,7 +96852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -96946,7 +96950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -97044,7 +97048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -97158,12 +97162,12 @@
       <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -97292,7 +97296,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -97421,7 +97425,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -97550,7 +97554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -97679,7 +97683,7 @@
         <v>0.44891240281219752</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -97808,7 +97812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -97937,7 +97941,7 @@
         <v>1.0875971878024622E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -98066,7 +98070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -98195,7 +98199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -98293,7 +98297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -98391,7 +98395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -98503,12 +98507,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -98637,7 +98641,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -98735,7 +98739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -98833,7 +98837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -98932,7 +98936,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -99030,7 +99034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -99129,7 +99133,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -99227,7 +99231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -99325,7 +99329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -99423,7 +99427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -99521,7 +99525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -99633,12 +99637,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -99767,7 +99771,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -99865,7 +99869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -99963,7 +99967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -100062,7 +100066,7 @@
       </c>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -100160,7 +100164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -100259,7 +100263,7 @@
       </c>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -100357,7 +100361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -100455,7 +100459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -100553,7 +100557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -100651,7 +100655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -100763,12 +100767,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -100897,7 +100901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -100995,7 +100999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -101093,7 +101097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -101226,7 +101230,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -101324,7 +101328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -101457,7 +101461,7 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -101555,7 +101559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -101653,7 +101657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -101751,7 +101755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -101849,7 +101853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>

--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/bpoefubvt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/bpoefubvt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032D54B-C7CE-CA4F-9335-0DAB5839C22D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA0228-A1A1-794F-BFA8-4C8C58111619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="85" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" firstSheet="85" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
